--- a/BackTest/2020-01-16 BackTest BCH.xlsx
+++ b/BackTest/2020-01-16 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>242.6288030499994</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-301.8697969500006</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,11 +880,17 @@
         <v>-611.0030705000005</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>355700</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +919,17 @@
         <v>-383.5354705000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>357700</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +962,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +999,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1036,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1073,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1110,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1147,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1184,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1221,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1258,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1295,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1332,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1369,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1406,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1443,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1480,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1517,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1554,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1591,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1628,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1665,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1702,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1739,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1776,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1813,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1850,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1887,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1924,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1961,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1998,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2035,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2072,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2109,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2146,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2183,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2220,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2257,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2294,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2331,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2368,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2405,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2442,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2479,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2516,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2553,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2590,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2627,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2664,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2701,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2738,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2775,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2812,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2849,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2886,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2923,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2960,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2997,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3034,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3071,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3108,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3145,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3182,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3219,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3256,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3293,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3330,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3367,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3404,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3441,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3478,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3515,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3552,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3589,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3626,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3663,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3700,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3737,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3774,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3811,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3848,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3885,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3922,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3959,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3996,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4033,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4070,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4107,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4144,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4181,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4218,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4255,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4292,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4329,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4366,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4403,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4440,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4477,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4514,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4551,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4588,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4625,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4662,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4699,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4736,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4773,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4810,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4847,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4884,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4921,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4958,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4995,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5032,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5069,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5106,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5143,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5180,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5217,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5254,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5291,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5328,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5365,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5402,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5439,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5476,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5513,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5550,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5587,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5624,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5661,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5698,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5735,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5772,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5809,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5846,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5883,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5920,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5957,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5994,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6031,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6068,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6105,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6142,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6179,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6216,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6253,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6290,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6327,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6360,17 @@
         <v>-2758.729841630001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>349700</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6399,17 @@
         <v>-2611.797941630001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>349100</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6438,17 @@
         <v>-2561.450641630001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>350800</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6477,17 @@
         <v>-2573.513741630001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>353500</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6516,17 @@
         <v>-2511.841741630001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>351500</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6555,17 @@
         <v>-2537.889441630001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>352700</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6594,17 @@
         <v>-2512.354541630001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>352400</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6633,17 @@
         <v>-2586.846141630001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>353700</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6672,17 @@
         <v>-2553.161941630001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>353300</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6711,17 @@
         <v>-2662.084440770001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>353700</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,7 +6750,7 @@
         <v>-2625.431158490001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>352000</v>
@@ -6102,7 +6758,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6133,7 +6789,7 @@
         <v>-2615.767558490001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>352300</v>
@@ -6172,7 +6828,7 @@
         <v>-2912.126958490001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>352400</v>
@@ -6211,7 +6867,7 @@
         <v>-3015.873958490001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>351300</v>
@@ -6250,7 +6906,7 @@
         <v>-3114.146858490001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>350100</v>
@@ -6289,7 +6945,7 @@
         <v>-3104.093258490001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>349900</v>
@@ -6328,9 +6984,11 @@
         <v>-3104.093258490001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>350500</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6365,9 +7023,11 @@
         <v>-3120.20605849</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>350500</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6402,9 +7062,11 @@
         <v>-3106.003058490001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>350200</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6439,9 +7101,11 @@
         <v>-3087.850658490001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>350600</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6476,7 +7140,7 @@
         <v>-3085.388658490001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>351500</v>
@@ -6515,9 +7179,11 @@
         <v>-2967.125658490001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>351600</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6552,9 +7218,11 @@
         <v>-3010.691258490001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>353100</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6589,9 +7257,11 @@
         <v>-3018.154369010001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>352700</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6626,9 +7296,11 @@
         <v>-3006.91367038</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>351700</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6663,9 +7335,11 @@
         <v>-3067.23557038</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>352100</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6700,7 +7374,7 @@
         <v>-3016.24877494</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>351200</v>
@@ -6739,7 +7413,7 @@
         <v>-3045.02587494</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>351400</v>
@@ -6778,7 +7452,7 @@
         <v>-3069.53847494</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>351200</v>
@@ -6817,7 +7491,7 @@
         <v>-3051.53847494</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>349300</v>
@@ -6856,7 +7530,7 @@
         <v>-2954.03917494</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>349800</v>
@@ -6895,7 +7569,7 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>350300</v>
@@ -6934,7 +7608,7 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>351900</v>
@@ -6973,7 +7647,7 @@
         <v>-2881.41247494</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>351900</v>
@@ -7012,7 +7686,7 @@
         <v>-2871.88997494</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>351300</v>
@@ -7051,7 +7725,7 @@
         <v>-2914.94077494</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>351800</v>
@@ -7090,7 +7764,7 @@
         <v>-2954.96137494</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>351100</v>
@@ -7129,7 +7803,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>350900</v>
@@ -7168,7 +7842,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>351000</v>
@@ -7207,7 +7881,7 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>351000</v>
@@ -7246,7 +7920,7 @@
         <v>-2950.66196742</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>351000</v>
@@ -7285,7 +7959,7 @@
         <v>-2953.38576742</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>350000</v>
@@ -7324,7 +7998,7 @@
         <v>-2939.04366742</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>349800</v>
@@ -7363,7 +8037,7 @@
         <v>-2949.290567420001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>350200</v>
@@ -7402,7 +8076,7 @@
         <v>-2957.716667420001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>349400</v>
@@ -7441,7 +8115,7 @@
         <v>-2995.397367420001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>349100</v>
@@ -7480,7 +8154,7 @@
         <v>-2943.779967420001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>348000</v>
@@ -7519,7 +8193,7 @@
         <v>-3072.781367420001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>349700</v>
@@ -7558,7 +8232,7 @@
         <v>-3070.74556742</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>349300</v>
@@ -7597,7 +8271,7 @@
         <v>-3053.40316742</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>349500</v>
@@ -7636,7 +8310,7 @@
         <v>-2982.58156742</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>349700</v>
@@ -7675,7 +8349,7 @@
         <v>-2969.36506742</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>352100</v>
@@ -7714,7 +8388,7 @@
         <v>-2991.39666742</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>352900</v>
@@ -7753,7 +8427,7 @@
         <v>-2991.39666742</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>351500</v>
@@ -7792,7 +8466,7 @@
         <v>-2990.37716742</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>351500</v>
@@ -7831,7 +8505,7 @@
         <v>-2991.99856742</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>351900</v>
@@ -7870,7 +8544,7 @@
         <v>-2979.92716742</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>351100</v>
@@ -7909,7 +8583,7 @@
         <v>-2979.92716742</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>352000</v>
@@ -7948,7 +8622,7 @@
         <v>-2965.16726742</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>352000</v>
@@ -7987,7 +8661,7 @@
         <v>-2826.60946742</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>353400</v>
@@ -8026,7 +8700,7 @@
         <v>-2826.60946742</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>353500</v>
@@ -8065,7 +8739,7 @@
         <v>-2739.72626742</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>353500</v>
@@ -8104,7 +8778,7 @@
         <v>-2648.35206742</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>355900</v>
@@ -8143,7 +8817,7 @@
         <v>-2619.15926742</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>356100</v>
@@ -8182,7 +8856,7 @@
         <v>-2690.57106742</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>359200</v>
@@ -8221,7 +8895,7 @@
         <v>-2621.43586742</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>357700</v>
@@ -8260,7 +8934,7 @@
         <v>-2498.77586742</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>357900</v>
@@ -8299,7 +8973,7 @@
         <v>-2498.77586742</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>359600</v>
@@ -8338,7 +9012,7 @@
         <v>-2443.76686742</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>359600</v>
@@ -8377,7 +9051,7 @@
         <v>-2637.50546742</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>361700</v>
@@ -8416,9 +9090,11 @@
         <v>-2652.25386742</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>358300</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8453,9 +9129,11 @@
         <v>-2694.76626742</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>358000</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8490,9 +9168,11 @@
         <v>-2672.81716742</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>357800</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8527,7 +9207,7 @@
         <v>-2681.91166742</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>358100</v>
@@ -8566,7 +9246,7 @@
         <v>-2660.37156742</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>357700</v>
@@ -8605,7 +9285,7 @@
         <v>-2684.37486742</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>359900</v>
@@ -8644,7 +9324,7 @@
         <v>-2738.67430097</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>358100</v>
@@ -8683,7 +9363,7 @@
         <v>-2650.04890097</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>356600</v>
@@ -8722,7 +9402,7 @@
         <v>-2650.06420097</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>356800</v>
@@ -8761,7 +9441,7 @@
         <v>-2690.18760097</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>356100</v>
@@ -8800,9 +9480,11 @@
         <v>-2683.346200970001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>355700</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8837,9 +9519,11 @@
         <v>-2625.834600970001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>356000</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8874,9 +9558,11 @@
         <v>-2611.579100970001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>356700</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8911,9 +9597,11 @@
         <v>-2635.935177520001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>359100</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8948,9 +9636,11 @@
         <v>-2635.935177520001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>357900</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8985,9 +9675,11 @@
         <v>-2648.869277520001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>357900</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9022,9 +9714,11 @@
         <v>-2692.339977520001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>356200</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9059,9 +9753,11 @@
         <v>-2632.31317752</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>356000</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9096,9 +9792,11 @@
         <v>-2636.06207752</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>357400</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9133,9 +9831,11 @@
         <v>-2632.42537752</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>356800</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9170,9 +9870,11 @@
         <v>-2632.42537752</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>357200</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9207,7 +9909,7 @@
         <v>-2666.57037752</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>357200</v>
@@ -9246,9 +9948,11 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>356700</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9283,9 +9987,11 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>357400</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9320,9 +10026,11 @@
         <v>-2682.624177520001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>357400</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9357,9 +10065,11 @@
         <v>-2692.98047752</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>355300</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9394,9 +10104,11 @@
         <v>-2630.06697752</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>354700</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9431,9 +10143,11 @@
         <v>-2596.784477520001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>354800</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9468,9 +10182,11 @@
         <v>-2606.091577520001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>355800</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9505,9 +10221,11 @@
         <v>-2603.881677520001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>354800</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9542,9 +10260,11 @@
         <v>-2598.931677520001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>355000</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9579,9 +10299,11 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>355200</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9616,9 +10338,11 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>355300</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9653,9 +10377,11 @@
         <v>-2561.162177520001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>355300</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9690,9 +10416,11 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>355700</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9727,9 +10455,11 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>354700</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9764,9 +10494,11 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>354700</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9801,9 +10533,11 @@
         <v>-2520.548377520001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>354700</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9838,7 +10572,7 @@
         <v>-2515.050377520001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>355400</v>
@@ -9877,7 +10611,7 @@
         <v>-2536.379377520002</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>355600</v>
@@ -9916,9 +10650,11 @@
         <v>-2556.981277520002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>355500</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9953,9 +10689,11 @@
         <v>-2509.407077520002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>355300</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9990,9 +10728,11 @@
         <v>-2513.871577520002</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>356100</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10027,9 +10767,11 @@
         <v>-2538.124077520002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>356000</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10064,9 +10806,11 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>354900</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10101,9 +10845,11 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>355000</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10138,9 +10884,11 @@
         <v>-2459.441977520002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>355000</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10175,9 +10923,11 @@
         <v>-2457.120877520002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>355400</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10212,9 +10962,11 @@
         <v>-2475.785277520002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>356100</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10249,9 +11001,11 @@
         <v>-2410.211277520002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>355900</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10286,9 +11040,11 @@
         <v>-2368.825277520002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>356100</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10323,9 +11079,11 @@
         <v>-2356.852877520002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>356800</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10360,9 +11118,11 @@
         <v>-2295.289677520002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>357100</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10397,9 +11157,11 @@
         <v>-2320.866593570001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>358300</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10434,9 +11196,11 @@
         <v>-2336.533893570002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>358100</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10471,9 +11235,11 @@
         <v>-2326.072494410002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>357100</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10508,9 +11274,11 @@
         <v>-2357.378994410002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>358200</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10545,9 +11313,11 @@
         <v>-2379.632594410002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>357200</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10582,9 +11352,11 @@
         <v>-2295.144794410002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>354400</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10619,9 +11391,11 @@
         <v>-2285.792094410002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>354600</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10656,9 +11430,11 @@
         <v>-2281.242994410002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>355100</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10693,9 +11469,11 @@
         <v>-2279.238994410002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>355200</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10730,7 +11508,7 @@
         <v>-2278.873094410002</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>355700</v>
@@ -10769,7 +11547,7 @@
         <v>-2290.219134280002</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>355900</v>
@@ -10808,7 +11586,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>355000</v>
@@ -10847,7 +11625,7 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>355900</v>
@@ -10886,7 +11664,7 @@
         <v>-2173.910234280002</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>355900</v>
@@ -10925,9 +11703,11 @@
         <v>-2141.242734280002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>357600</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10962,9 +11742,11 @@
         <v>-2162.326434280002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>360300</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10999,9 +11781,11 @@
         <v>-2213.189434280002</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>358800</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11036,9 +11820,11 @@
         <v>-2202.021334280002</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>357500</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11073,9 +11859,11 @@
         <v>-2207.021334280002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>357900</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11110,9 +11898,11 @@
         <v>-2188.596134280002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>357100</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11147,9 +11937,11 @@
         <v>-2242.710134280002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>357300</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11184,7 +11976,7 @@
         <v>-2174.102934280002</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>356300</v>
@@ -11223,7 +12015,7 @@
         <v>-2174.102934280002</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>356400</v>
@@ -11262,7 +12054,7 @@
         <v>-2184.233534280002</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>356400</v>
@@ -11301,7 +12093,7 @@
         <v>-2106.809534280002</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>353400</v>
@@ -11340,7 +12132,7 @@
         <v>-2106.809534280002</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>355000</v>
@@ -11379,7 +12171,7 @@
         <v>-2104.809534280002</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>355000</v>
@@ -11418,7 +12210,7 @@
         <v>-2092.712734280002</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>355500</v>
@@ -11457,7 +12249,7 @@
         <v>-2088.561334280002</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>355600</v>
@@ -11496,7 +12288,7 @@
         <v>-2093.742634280002</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>356700</v>
@@ -11535,9 +12327,11 @@
         <v>-2085.233534280002</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>356000</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11572,9 +12366,11 @@
         <v>-2092.730034280002</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>356100</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11609,9 +12405,11 @@
         <v>-2067.403425760002</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>355700</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11646,9 +12444,11 @@
         <v>-2068.740725760003</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>357000</v>
+      </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11683,9 +12483,11 @@
         <v>-2066.232695590003</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>356400</v>
+      </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11720,9 +12522,11 @@
         <v>-2066.232695590003</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>357300</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11757,9 +12561,11 @@
         <v>-2045.582695590002</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>357300</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11794,9 +12600,11 @@
         <v>-2055.382695590003</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>357700</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11831,9 +12639,11 @@
         <v>-2058.234095590003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>357100</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11868,9 +12678,11 @@
         <v>-2100.621195590003</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>356400</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11905,9 +12717,11 @@
         <v>-2076.382095590003</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>355900</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11942,9 +12756,11 @@
         <v>-2089.838295590003</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>356800</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11979,9 +12795,11 @@
         <v>-2076.851595590003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>356000</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12016,9 +12834,11 @@
         <v>-2245.297995590003</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>357800</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12053,9 +12873,11 @@
         <v>-2308.131777400003</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>355800</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12090,9 +12912,11 @@
         <v>-2324.011577400003</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>355000</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12127,9 +12951,11 @@
         <v>-2374.314477400003</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>354900</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12164,9 +12990,11 @@
         <v>-2168.313277400003</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>354800</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12201,9 +13029,11 @@
         <v>-2167.809677400003</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>355300</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12238,9 +13068,11 @@
         <v>-2165.401777400003</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>355400</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12275,9 +13107,11 @@
         <v>-2196.044877400002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>356100</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12312,9 +13146,11 @@
         <v>-2088.130877400002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>356000</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12349,9 +13185,11 @@
         <v>-2095.793877400002</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>357800</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12386,9 +13224,11 @@
         <v>-2121.964077400002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>357100</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12423,9 +13263,11 @@
         <v>-2120.514777400002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>356600</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12460,9 +13302,11 @@
         <v>-2122.434877400002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>357300</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12497,9 +13341,11 @@
         <v>-2100.217577400002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>356700</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12534,9 +13380,11 @@
         <v>-2082.724877400002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>357800</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12571,9 +13419,11 @@
         <v>-2088.624077400002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>358300</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12608,9 +13458,11 @@
         <v>-2086.624624230002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>357800</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12645,9 +13497,11 @@
         <v>-2101.487923610002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>358600</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12682,9 +13536,11 @@
         <v>-2069.501623610002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>358000</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12719,9 +13575,11 @@
         <v>-2043.886824170002</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>358600</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12756,9 +13614,11 @@
         <v>-2051.244324170002</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>358700</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12793,9 +13653,11 @@
         <v>-2055.371824170002</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>358600</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12830,9 +13692,11 @@
         <v>-2055.469224170002</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>358100</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12867,9 +13731,11 @@
         <v>-2051.588224170002</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>357900</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12904,9 +13770,11 @@
         <v>-2044.027424170002</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>358000</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12941,9 +13809,11 @@
         <v>-2013.144122450002</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>359000</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12978,9 +13848,11 @@
         <v>-1947.239222450002</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>359100</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13015,9 +13887,11 @@
         <v>-1911.589722450002</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>359800</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13052,9 +13926,11 @@
         <v>-1884.037822450003</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>360000</v>
+      </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13089,9 +13965,11 @@
         <v>-1764.682632550003</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>360200</v>
+      </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -13126,9 +14004,11 @@
         <v>-1737.248898920003</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>360400</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13163,9 +14043,11 @@
         <v>-1787.845698920003</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>360900</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13200,9 +14082,11 @@
         <v>-1722.470913900003</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>360000</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13237,9 +14121,11 @@
         <v>-1671.366413900003</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>360500</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13274,9 +14160,11 @@
         <v>-1715.351013900003</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>361200</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13311,9 +14199,11 @@
         <v>-1710.115913900003</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>360700</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13348,9 +14238,11 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>360900</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13385,9 +14277,11 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>361000</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13422,9 +14316,11 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>361000</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13459,9 +14355,11 @@
         <v>-1722.595113900003</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>361000</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13533,9 +14431,11 @@
         <v>-1719.149613900003</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>361100</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13607,9 +14507,11 @@
         <v>-1596.659413900003</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>362100</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13755,9 +14657,11 @@
         <v>-1558.450714900003</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>362900</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13977,9 +14881,11 @@
         <v>-1428.914717640003</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>364300</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14014,9 +14920,11 @@
         <v>-1460.285917640003</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>365000</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14051,9 +14959,11 @@
         <v>-1445.615151210003</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>364500</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14088,9 +14998,11 @@
         <v>-1368.769715580003</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>364900</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14125,9 +15037,11 @@
         <v>-1081.168282000003</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>365500</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -16641,16 +17555,18 @@
         <v>3202.087570379997</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L454" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
       <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -16680,7 +17596,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16713,7 +17633,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16746,7 +17670,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16775,11 +17703,15 @@
         <v>4309.559785549997</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16808,11 +17740,15 @@
         <v>4557.873621149997</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16845,7 +17781,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16878,7 +17818,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16911,7 +17855,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +17892,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16973,11 +17925,15 @@
         <v>3341.178848229998</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17006,11 +17962,15 @@
         <v>3179.309048229998</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17039,11 +17999,15 @@
         <v>3044.903291819998</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17076,7 +18040,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17109,7 +18077,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17138,11 +18110,15 @@
         <v>3019.950505219998</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17171,11 +18147,15 @@
         <v>2941.604351089998</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17204,11 +18184,15 @@
         <v>2941.604351089998</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +18221,15 @@
         <v>2811.659863309998</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17270,11 +18258,15 @@
         <v>2982.208563309998</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17307,7 +18299,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17336,11 +18332,15 @@
         <v>3006.901678689998</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17369,11 +18369,15 @@
         <v>2678.051702779998</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17402,11 +18406,15 @@
         <v>2492.914535469998</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17435,11 +18443,15 @@
         <v>2409.797535469997</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17472,7 +18484,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17505,7 +18521,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +18558,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17571,7 +18595,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17604,7 +18632,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17637,7 +18669,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17670,7 +18706,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17699,11 +18739,15 @@
         <v>1751.069592199997</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17732,11 +18776,15 @@
         <v>1466.179323939997</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17765,11 +18813,15 @@
         <v>1693.988945509997</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17798,11 +18850,15 @@
         <v>1929.472021099997</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17835,7 +18891,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17868,7 +18928,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17901,7 +18965,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17934,7 +19002,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17967,7 +19039,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18000,7 +19076,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18033,7 +19113,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18066,7 +19150,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18099,7 +19187,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18132,7 +19224,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18165,7 +19261,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18198,7 +19298,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18231,7 +19335,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18264,7 +19372,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18297,7 +19409,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18330,7 +19446,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18363,7 +19483,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18396,7 +19520,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18429,7 +19557,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18462,7 +19594,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18491,11 +19627,15 @@
         <v>5036.571927929996</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18528,7 +19668,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18561,7 +19705,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18590,11 +19738,15 @@
         <v>4365.012162709996</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18623,14 +19775,16 @@
         <v>4574.170255319996</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
@@ -18656,7 +19810,7 @@
         <v>4753.897476479996</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18689,7 +19843,7 @@
         <v>4647.368610989996</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18722,7 +19876,7 @@
         <v>4343.296566079996</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18755,7 +19909,7 @@
         <v>3925.017276849997</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18788,7 +19942,7 @@
         <v>4403.498310969997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18821,7 +19975,7 @@
         <v>4260.654790339997</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18854,7 +20008,7 @@
         <v>4045.030909459997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18887,7 +20041,7 @@
         <v>4204.931409459997</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18920,7 +20074,7 @@
         <v>4487.342516309996</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18953,7 +20107,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18986,7 +20140,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19019,7 +20173,7 @@
         <v>4043.356959329996</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19052,7 +20206,7 @@
         <v>3669.953553189996</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19085,7 +20239,7 @@
         <v>3987.938240579997</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19118,7 +20272,7 @@
         <v>4193.331607099996</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19151,7 +20305,7 @@
         <v>4338.436200269996</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19184,7 +20338,7 @@
         <v>4214.464352269996</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19217,7 +20371,7 @@
         <v>4029.621852269996</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19250,7 +20404,7 @@
         <v>4177.674705469996</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19283,7 +20437,7 @@
         <v>4582.041805469997</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19316,7 +20470,7 @@
         <v>4775.134005469997</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19349,7 +20503,7 @@
         <v>4284.088305469997</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19382,7 +20536,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19415,7 +20569,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19448,7 +20602,7 @@
         <v>3963.091205469997</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19481,7 +20635,7 @@
         <v>3630.945105469998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19514,7 +20668,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19547,7 +20701,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19580,7 +20734,7 @@
         <v>2869.541995949997</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19613,7 +20767,7 @@
         <v>3309.847195949998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19646,7 +20800,7 @@
         <v>3519.341595949998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19679,7 +20833,7 @@
         <v>3379.960195949997</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19712,7 +20866,7 @@
         <v>3152.683695949997</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19745,7 +20899,7 @@
         <v>2416.950895949997</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19778,7 +20932,7 @@
         <v>1955.494219479997</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19811,7 +20965,7 @@
         <v>1457.816519479997</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19844,7 +20998,7 @@
         <v>1975.001516019997</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19877,7 +21031,7 @@
         <v>2323.472592029997</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19910,7 +21064,7 @@
         <v>2629.516779339997</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19943,7 +21097,7 @@
         <v>2411.754947769997</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19976,7 +21130,7 @@
         <v>2799.981958109997</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20009,7 +21163,7 @@
         <v>2972.669048649997</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20042,7 +21196,7 @@
         <v>3039.971610979997</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20075,7 +21229,7 @@
         <v>3197.882011519997</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20108,7 +21262,7 @@
         <v>3006.209093359997</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20141,7 +21295,7 @@
         <v>2800.441152509998</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20174,7 +21328,7 @@
         <v>2895.456652509998</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20207,7 +21361,7 @@
         <v>2738.303335209998</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22154,7 +23308,7 @@
         <v>3211.814835469996</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22187,7 +23341,7 @@
         <v>3231.005006799995</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22220,7 +23374,7 @@
         <v>3203.163106799996</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22253,7 +23407,7 @@
         <v>3216.525806799996</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22286,7 +23440,7 @@
         <v>3429.745411889996</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22319,7 +23473,7 @@
         <v>3338.257111889996</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22352,7 +23506,7 @@
         <v>3275.469164199996</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22385,7 +23539,7 @@
         <v>3269.593764199996</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22418,7 +23572,7 @@
         <v>3310.251808459996</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22451,7 +23605,7 @@
         <v>3335.553508459996</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22550,7 +23704,7 @@
         <v>3323.723008459996</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22583,7 +23737,7 @@
         <v>3382.779308459996</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22616,7 +23770,7 @@
         <v>3370.376808459996</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22682,7 +23836,7 @@
         <v>3490.417908459996</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22715,7 +23869,7 @@
         <v>3511.794306629996</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22748,7 +23902,7 @@
         <v>3633.258806629996</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22946,7 +24100,7 @@
         <v>3720.135206629996</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22979,7 +24133,7 @@
         <v>3758.560206629996</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23012,7 +24166,7 @@
         <v>3817.879406629996</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23045,7 +24199,7 @@
         <v>3706.108306629996</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23078,7 +24232,7 @@
         <v>3727.294105899996</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23111,7 +24265,7 @@
         <v>3679.003017759997</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23144,7 +24298,7 @@
         <v>3603.477114719996</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23276,7 +24430,7 @@
         <v>3547.827114719996</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23309,7 +24463,7 @@
         <v>3456.021014719996</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23342,7 +24496,7 @@
         <v>3489.358514719996</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23375,7 +24529,7 @@
         <v>3527.047914719997</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23408,7 +24562,7 @@
         <v>3690.300562309997</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23441,7 +24595,7 @@
         <v>3545.816241349997</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23474,7 +24628,7 @@
         <v>3502.072941349997</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23507,7 +24661,7 @@
         <v>3545.641932309997</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23540,7 +24694,7 @@
         <v>3507.633032309997</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23573,7 +24727,7 @@
         <v>3527.671631379997</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23606,7 +24760,7 @@
         <v>3509.115331379997</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23639,7 +24793,7 @@
         <v>3545.788733219997</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23672,7 +24826,7 @@
         <v>3537.448533219997</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23705,7 +24859,7 @@
         <v>3523.026833219997</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23738,7 +24892,7 @@
         <v>3550.280856809997</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23771,7 +24925,7 @@
         <v>3591.624090999997</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23804,7 +24958,7 @@
         <v>3582.667390999997</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23837,7 +24991,7 @@
         <v>3610.077490999997</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23870,7 +25024,7 @@
         <v>3603.378590999997</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23903,7 +25057,7 @@
         <v>3602.853990999997</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23936,7 +25090,7 @@
         <v>3649.162090999997</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23969,7 +25123,7 @@
         <v>3667.371390999997</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24002,7 +25156,7 @@
         <v>3704.185290999998</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24035,7 +25189,7 @@
         <v>3676.779752759997</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24068,7 +25222,7 @@
         <v>3694.975152759997</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24101,7 +25255,7 @@
         <v>3681.000052759997</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24134,7 +25288,7 @@
         <v>3716.520252759997</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24167,7 +25321,7 @@
         <v>3677.121552759997</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24200,7 +25354,7 @@
         <v>3624.647252759997</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24233,7 +25387,7 @@
         <v>3512.239052759997</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24266,7 +25420,7 @@
         <v>3596.617952759997</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24299,7 +25453,7 @@
         <v>3427.697652759997</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24332,7 +25486,7 @@
         <v>3516.267752759997</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24365,7 +25519,7 @@
         <v>3649.262866559997</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24398,7 +25552,7 @@
         <v>3765.128766559997</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24431,7 +25585,7 @@
         <v>3649.009966559997</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24464,7 +25618,7 @@
         <v>3592.340512959997</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24497,7 +25651,7 @@
         <v>3561.456112959997</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24530,7 +25684,7 @@
         <v>3621.723512959997</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24563,7 +25717,7 @@
         <v>3585.970264329997</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24596,7 +25750,7 @@
         <v>3606.902464329997</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24629,7 +25783,7 @@
         <v>3540.778320799997</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24662,7 +25816,7 @@
         <v>3544.395820799997</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -36311,7 +37465,7 @@
         <v>2203.853608949995</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36377,7 +37531,7 @@
         <v>2330.183243829995</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36410,7 +37564,7 @@
         <v>2404.216144249995</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36443,7 +37597,7 @@
         <v>2432.750044249995</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36476,7 +37630,7 @@
         <v>2452.497044249995</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36509,7 +37663,7 @@
         <v>2476.375644249995</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36542,7 +37696,7 @@
         <v>2519.779744249995</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36575,7 +37729,7 @@
         <v>2492.143644039995</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36608,7 +37762,7 @@
         <v>2378.298644039995</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36641,7 +37795,7 @@
         <v>2427.160244039995</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36674,7 +37828,7 @@
         <v>2461.336989239995</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36707,7 +37861,7 @@
         <v>2571.422858959995</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36740,7 +37894,7 @@
         <v>2966.595978149995</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36773,7 +37927,7 @@
         <v>2918.198078149995</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36806,7 +37960,7 @@
         <v>2846.770278149995</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36839,7 +37993,7 @@
         <v>2727.332198319995</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36872,7 +38026,7 @@
         <v>2771.003598319995</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36905,7 +38059,7 @@
         <v>2880.199898319996</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36938,7 +38092,7 @@
         <v>2858.913166159995</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -36971,7 +38125,7 @@
         <v>2985.846266159996</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37004,7 +38158,7 @@
         <v>2799.860506739996</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37037,7 +38191,7 @@
         <v>2858.779906739996</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37070,7 +38224,7 @@
         <v>2633.996506539996</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37103,7 +38257,7 @@
         <v>2785.610106539996</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37136,7 +38290,7 @@
         <v>2898.801406539996</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37169,7 +38323,7 @@
         <v>3101.995026119996</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37202,7 +38356,7 @@
         <v>2992.965909719996</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37235,7 +38389,7 @@
         <v>2934.777009719996</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37268,7 +38422,7 @@
         <v>3004.941415839996</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37301,7 +38455,7 @@
         <v>3126.682787159996</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37334,7 +38488,7 @@
         <v>3066.682056489996</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37367,7 +38521,7 @@
         <v>2916.834848699996</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -39578,7 +40732,7 @@
         <v>1660.429467439996</v>
       </c>
       <c r="H1149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39611,7 +40765,7 @@
         <v>1637.066667439996</v>
       </c>
       <c r="H1150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40205,7 +41359,7 @@
         <v>1314.128730019997</v>
       </c>
       <c r="H1168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40238,7 +41392,7 @@
         <v>1349.926730019997</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40271,7 +41425,7 @@
         <v>1343.854230019997</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -41954,7 +43108,7 @@
         <v>1089.777970219997</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -41987,7 +43141,7 @@
         <v>1113.562070219997</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42020,7 +43174,7 @@
         <v>1062.029070219997</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42053,7 +43207,7 @@
         <v>1064.445970219997</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42086,7 +43240,7 @@
         <v>1085.506024829997</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42119,7 +43273,7 @@
         <v>1099.229124829997</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42218,7 +43372,7 @@
         <v>1104.920524829997</v>
       </c>
       <c r="H1229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42251,7 +43405,7 @@
         <v>1100.918124829997</v>
       </c>
       <c r="H1230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -42350,7 +43504,7 @@
         <v>1165.998450949997</v>
       </c>
       <c r="H1233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42482,7 +43636,7 @@
         <v>1077.797188719997</v>
       </c>
       <c r="H1237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -43637,7 +44791,7 @@
         <v>1026.540396939996</v>
       </c>
       <c r="H1272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -43901,7 +45055,7 @@
         <v>1078.371896939996</v>
       </c>
       <c r="H1280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43934,7 +45088,7 @@
         <v>1085.918996939996</v>
       </c>
       <c r="H1281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -43967,7 +45121,7 @@
         <v>1085.918996939996</v>
       </c>
       <c r="H1282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -44165,7 +45319,7 @@
         <v>1017.295084859996</v>
       </c>
       <c r="H1288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44198,7 +45352,7 @@
         <v>998.8661848599961</v>
       </c>
       <c r="H1289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44231,7 +45385,7 @@
         <v>987.9746848599962</v>
       </c>
       <c r="H1290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44594,7 +45748,7 @@
         <v>1027.679722599996</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44627,7 +45781,7 @@
         <v>1068.401922599996</v>
       </c>
       <c r="H1302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44660,7 +45814,7 @@
         <v>1143.085759479996</v>
       </c>
       <c r="H1303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44693,7 +45847,7 @@
         <v>893.4429344499961</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44726,7 +45880,7 @@
         <v>1000.695934449996</v>
       </c>
       <c r="H1305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44759,7 +45913,7 @@
         <v>974.4613344499961</v>
       </c>
       <c r="H1306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44792,7 +45946,7 @@
         <v>1064.766834449996</v>
       </c>
       <c r="H1307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44825,7 +45979,7 @@
         <v>1138.636434449996</v>
       </c>
       <c r="H1308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44858,7 +46012,7 @@
         <v>1046.493634449996</v>
       </c>
       <c r="H1309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44891,7 +46045,7 @@
         <v>1104.149534449996</v>
       </c>
       <c r="H1310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44924,7 +46078,7 @@
         <v>1133.943334449996</v>
       </c>
       <c r="H1311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44957,7 +46111,7 @@
         <v>1254.294757769996</v>
       </c>
       <c r="H1312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44990,7 +46144,7 @@
         <v>1189.948057769996</v>
       </c>
       <c r="H1313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -45023,7 +46177,7 @@
         <v>1150.390157769996</v>
       </c>
       <c r="H1314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -45056,7 +46210,7 @@
         <v>1110.245657769996</v>
       </c>
       <c r="H1315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -45089,7 +46243,7 @@
         <v>1233.347457769996</v>
       </c>
       <c r="H1316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -45122,7 +46276,7 @@
         <v>1299.230688929996</v>
       </c>
       <c r="H1317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -45155,7 +46309,7 @@
         <v>1237.226588929996</v>
       </c>
       <c r="H1318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -45188,7 +46342,7 @@
         <v>1113.883088929996</v>
       </c>
       <c r="H1319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -45958,6 +47112,6 @@
       <c r="M1342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BCH.xlsx
+++ b/BackTest/2020-01-16 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>948.8634585299994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>242.6288030499994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-301.8697969500006</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1258.898096950001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -880,17 +880,11 @@
         <v>-611.0030705000005</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>355700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -919,17 +913,11 @@
         <v>-383.5354705000005</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>357700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1036,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1073,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1295,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1332,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1369,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1406,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1443,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1480,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1702,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1739,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1813,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1887,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2109,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2257,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2368,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2516,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2701,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2923,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3034,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3108,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3663,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3700,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3737,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3774,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3811,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3922,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4107,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4255,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4329,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4440,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4551,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4625,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4773,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4884,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4921,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5032,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5069,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5106,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5143,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5328,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5365,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5402,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5476,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5513,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5550,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6216,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6290,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6327,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6360,17 +5764,11 @@
         <v>-2758.729841630001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>349700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6399,17 +5797,11 @@
         <v>-2611.797941630001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>349100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6438,17 +5830,11 @@
         <v>-2561.450641630001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>350800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6477,17 +5863,11 @@
         <v>-2573.513741630001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>353500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6516,17 +5896,11 @@
         <v>-2511.841741630001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>351500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6555,17 +5929,11 @@
         <v>-2537.889441630001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>352700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6594,17 +5962,11 @@
         <v>-2512.354541630001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>352400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6633,17 +5995,11 @@
         <v>-2586.846141630001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>353700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6672,17 +6028,11 @@
         <v>-2553.161941630001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>353300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6711,17 +6061,11 @@
         <v>-2662.084440770001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>353700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6750,17 +6094,11 @@
         <v>-2625.431158490001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>352000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6789,17 +6127,11 @@
         <v>-2615.767558490001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>352300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6828,17 +6160,11 @@
         <v>-2912.126958490001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>352400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6867,17 +6193,11 @@
         <v>-3015.873958490001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>351300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6906,17 +6226,11 @@
         <v>-3114.146858490001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>350100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6945,17 +6259,11 @@
         <v>-3104.093258490001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>349900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6984,17 +6292,11 @@
         <v>-3104.093258490001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>350500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7023,17 +6325,11 @@
         <v>-3120.20605849</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>350500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7062,17 +6358,11 @@
         <v>-3106.003058490001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>350200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7101,17 +6391,11 @@
         <v>-3087.850658490001</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>350600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7140,17 +6424,11 @@
         <v>-3085.388658490001</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>351500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7179,17 +6457,11 @@
         <v>-2967.125658490001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>351600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7218,17 +6490,11 @@
         <v>-3010.691258490001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>353100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7257,17 +6523,11 @@
         <v>-3018.154369010001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>352700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7296,17 +6556,11 @@
         <v>-3006.91367038</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>351700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7335,17 +6589,11 @@
         <v>-3067.23557038</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>352100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7374,17 +6622,11 @@
         <v>-3016.24877494</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>351200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7413,17 +6655,11 @@
         <v>-3045.02587494</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>351400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7460,7 +6696,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -7725,11 +6961,9 @@
         <v>-2914.94077494</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>351800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7764,11 +6998,9 @@
         <v>-2954.96137494</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>351100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7881,11 +7113,9 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>351000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -8856,11 +8086,9 @@
         <v>-2690.57106742</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>359200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8895,11 +8123,9 @@
         <v>-2621.43586742</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>357700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8934,11 +8160,9 @@
         <v>-2498.77586742</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8973,11 +8197,9 @@
         <v>-2498.77586742</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>359600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9012,11 +8234,9 @@
         <v>-2443.76686742</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>359600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9051,11 +8271,9 @@
         <v>-2637.50546742</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>361700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9090,11 +8308,9 @@
         <v>-2652.25386742</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>358300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9129,11 +8345,9 @@
         <v>-2694.76626742</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>358000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9168,11 +8382,9 @@
         <v>-2672.81716742</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>357800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9207,11 +8419,9 @@
         <v>-2681.91166742</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>358100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9246,11 +8456,9 @@
         <v>-2660.37156742</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>357700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9285,11 +8493,9 @@
         <v>-2684.37486742</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>359900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9324,11 +8530,9 @@
         <v>-2738.67430097</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>358100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9363,11 +8567,9 @@
         <v>-2650.04890097</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>356600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9402,11 +8604,9 @@
         <v>-2650.06420097</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>356800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9441,11 +8641,9 @@
         <v>-2690.18760097</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9480,11 +8678,9 @@
         <v>-2683.346200970001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>355700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9519,11 +8715,9 @@
         <v>-2625.834600970001</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9558,11 +8752,9 @@
         <v>-2611.579100970001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>356700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9597,11 +8789,9 @@
         <v>-2635.935177520001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>359100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9636,11 +8826,9 @@
         <v>-2635.935177520001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9675,11 +8863,9 @@
         <v>-2648.869277520001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9714,11 +8900,9 @@
         <v>-2692.339977520001</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>356200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9753,11 +8937,9 @@
         <v>-2632.31317752</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9792,11 +8974,9 @@
         <v>-2636.06207752</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>357400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9831,11 +9011,9 @@
         <v>-2632.42537752</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>356800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9870,11 +9048,9 @@
         <v>-2632.42537752</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>357200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9909,11 +9085,9 @@
         <v>-2666.57037752</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>357200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9948,11 +9122,9 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>356700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9987,11 +9159,9 @@
         <v>-2649.34557752</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>357400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10026,11 +9196,9 @@
         <v>-2682.624177520001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>357400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10065,11 +9233,9 @@
         <v>-2692.98047752</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>355300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10104,11 +9270,9 @@
         <v>-2630.06697752</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>354700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10143,11 +9307,9 @@
         <v>-2596.784477520001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>354800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10182,11 +9344,9 @@
         <v>-2606.091577520001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>355800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10221,11 +9381,9 @@
         <v>-2603.881677520001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>354800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10260,11 +9418,9 @@
         <v>-2598.931677520001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10416,11 +9572,9 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>355700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -11313,11 +10467,9 @@
         <v>-2379.632594410002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>357200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11352,11 +10504,9 @@
         <v>-2295.144794410002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>354400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11742,11 +10892,9 @@
         <v>-2162.326434280002</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>360300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11781,11 +10929,9 @@
         <v>-2213.189434280002</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>358800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11820,11 +10966,9 @@
         <v>-2202.021334280002</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>357500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11859,11 +11003,9 @@
         <v>-2207.021334280002</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11898,11 +11040,9 @@
         <v>-2188.596134280002</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>357100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11937,11 +11077,9 @@
         <v>-2242.710134280002</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>357300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11976,11 +11114,9 @@
         <v>-2174.102934280002</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>356300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -12015,11 +11151,9 @@
         <v>-2174.102934280002</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>356400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -12054,11 +11188,9 @@
         <v>-2184.233534280002</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>356400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -12093,11 +11225,9 @@
         <v>-2106.809534280002</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>353400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -12132,11 +11262,9 @@
         <v>-2106.809534280002</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -12210,11 +11338,9 @@
         <v>-2092.712734280002</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>355500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -12249,11 +11375,9 @@
         <v>-2088.561334280002</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>355600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12288,11 +11412,9 @@
         <v>-2093.742634280002</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>356700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12327,11 +11449,9 @@
         <v>-2085.233534280002</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12366,11 +11486,9 @@
         <v>-2092.730034280002</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -12405,11 +11523,9 @@
         <v>-2067.403425760002</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>355700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -12444,11 +11560,9 @@
         <v>-2068.740725760003</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>357000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -12483,11 +11597,9 @@
         <v>-2066.232695590003</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>356400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -12522,11 +11634,9 @@
         <v>-2066.232695590003</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>357300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12561,11 +11671,9 @@
         <v>-2045.582695590002</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>357300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -12600,11 +11708,9 @@
         <v>-2055.382695590003</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>357700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -12639,11 +11745,9 @@
         <v>-2058.234095590003</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>357100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12678,11 +11782,9 @@
         <v>-2100.621195590003</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>356400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12717,11 +11819,9 @@
         <v>-2076.382095590003</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>355900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12756,11 +11856,9 @@
         <v>-2089.838295590003</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>356800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12795,11 +11893,9 @@
         <v>-2076.851595590003</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12834,11 +11930,9 @@
         <v>-2245.297995590003</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>357800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12873,11 +11967,9 @@
         <v>-2308.131777400003</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>355800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12912,11 +12004,9 @@
         <v>-2324.011577400003</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12951,11 +12041,9 @@
         <v>-2374.314477400003</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>354900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12990,11 +12078,9 @@
         <v>-2168.313277400003</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>354800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -13029,11 +12115,9 @@
         <v>-2167.809677400003</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>355300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -13068,11 +12152,9 @@
         <v>-2165.401777400003</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>355400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -13107,11 +12189,9 @@
         <v>-2196.044877400002</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -13146,11 +12226,9 @@
         <v>-2088.130877400002</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -13185,11 +12263,9 @@
         <v>-2095.793877400002</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>357800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -13224,11 +12300,9 @@
         <v>-2121.964077400002</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>357100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -13263,11 +12337,9 @@
         <v>-2120.514777400002</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>356600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -13302,11 +12374,9 @@
         <v>-2122.434877400002</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>357300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -13341,11 +12411,9 @@
         <v>-2100.217577400002</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>356700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -13380,11 +12448,9 @@
         <v>-2082.724877400002</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>357800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -13419,11 +12485,9 @@
         <v>-2088.624077400002</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>358300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -13458,11 +12522,9 @@
         <v>-2086.624624230002</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>357800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -13497,11 +12559,9 @@
         <v>-2101.487923610002</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>358600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -13536,11 +12596,9 @@
         <v>-2069.501623610002</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>358000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13575,11 +12633,9 @@
         <v>-2043.886824170002</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>358600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -13614,11 +12670,9 @@
         <v>-2051.244324170002</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>358700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13653,11 +12707,9 @@
         <v>-2055.371824170002</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>358600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13692,11 +12744,9 @@
         <v>-2055.469224170002</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>358100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13731,11 +12781,9 @@
         <v>-2051.588224170002</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13770,11 +12818,9 @@
         <v>-2044.027424170002</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>358000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -13809,11 +12855,9 @@
         <v>-2013.144122450002</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>359000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -13848,11 +12892,9 @@
         <v>-1947.239222450002</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>359100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13887,11 +12929,9 @@
         <v>-1911.589722450002</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>359800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13926,11 +12966,9 @@
         <v>-1884.037822450003</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>360000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13965,11 +13003,9 @@
         <v>-1764.682632550003</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>360200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -14004,11 +13040,9 @@
         <v>-1737.248898920003</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>360400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -14043,11 +13077,9 @@
         <v>-1787.845698920003</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>360900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -14082,11 +13114,9 @@
         <v>-1722.470913900003</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>360000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -14121,11 +13151,9 @@
         <v>-1671.366413900003</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>360500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -14160,11 +13188,9 @@
         <v>-1715.351013900003</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>361200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -14199,11 +13225,9 @@
         <v>-1710.115913900003</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>360700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -14238,11 +13262,9 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>360900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -14277,11 +13299,9 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>361000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -14316,11 +13336,9 @@
         <v>-1690.463813900003</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>361000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -14355,11 +13373,9 @@
         <v>-1722.595113900003</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>361000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -14431,11 +13447,9 @@
         <v>-1719.149613900003</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>361100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -14507,11 +13521,9 @@
         <v>-1596.659413900003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>362100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -14657,11 +13669,9 @@
         <v>-1558.450714900003</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>362900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14881,11 +13891,9 @@
         <v>-1428.914717640003</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>364300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14920,11 +13928,9 @@
         <v>-1460.285917640003</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>365000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14959,11 +13965,9 @@
         <v>-1445.615151210003</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>364500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14998,11 +14002,9 @@
         <v>-1368.769715580003</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>364900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -15037,11 +14039,9 @@
         <v>-1081.168282000003</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>365500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -18591,18 +17591,16 @@
         <v>2075.369522649997</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="inlineStr"/>
     </row>
     <row r="483">
@@ -18628,15 +17626,11 @@
         <v>2433.636822649997</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18665,15 +17659,11 @@
         <v>2288.090492199997</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18706,11 +17696,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18743,11 +17729,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18780,11 +17762,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18817,11 +17795,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18854,11 +17828,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18891,11 +17861,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18928,11 +17894,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18965,11 +17927,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19002,11 +17960,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19039,11 +17993,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19076,11 +18026,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19113,11 +18059,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19150,11 +18092,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19187,11 +18125,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19224,11 +18158,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +18191,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19298,11 +18224,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19335,11 +18257,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19372,11 +18290,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19409,11 +18323,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19446,11 +18356,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19483,11 +18389,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19520,11 +18422,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19557,11 +18455,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19594,11 +18488,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19631,11 +18521,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19668,11 +18554,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19705,11 +18587,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19742,11 +18620,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19775,16 +18649,14 @@
         <v>4574.170255319996</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
       <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
@@ -19810,7 +18682,7 @@
         <v>4753.897476479996</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19843,7 +18715,7 @@
         <v>4647.368610989996</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19876,7 +18748,7 @@
         <v>4343.296566079996</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19909,7 +18781,7 @@
         <v>3925.017276849997</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19942,7 +18814,7 @@
         <v>4403.498310969997</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19975,7 +18847,7 @@
         <v>4260.654790339997</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20008,7 +18880,7 @@
         <v>4045.030909459997</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20041,7 +18913,7 @@
         <v>4204.931409459997</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20074,7 +18946,7 @@
         <v>4487.342516309996</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20107,7 +18979,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20140,7 +19012,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20173,7 +19045,7 @@
         <v>4043.356959329996</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20206,7 +19078,7 @@
         <v>3669.953553189996</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20239,7 +19111,7 @@
         <v>3987.938240579997</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20272,7 +19144,7 @@
         <v>4193.331607099996</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20305,7 +19177,7 @@
         <v>4338.436200269996</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20338,7 +19210,7 @@
         <v>4214.464352269996</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20371,7 +19243,7 @@
         <v>4029.621852269996</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20404,7 +19276,7 @@
         <v>4177.674705469996</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20437,7 +19309,7 @@
         <v>4582.041805469997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20470,7 +19342,7 @@
         <v>4775.134005469997</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20503,7 +19375,7 @@
         <v>4284.088305469997</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20536,7 +19408,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20569,7 +19441,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20602,7 +19474,7 @@
         <v>3963.091205469997</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20635,7 +19507,7 @@
         <v>3630.945105469998</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20668,7 +19540,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20701,7 +19573,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20734,7 +19606,7 @@
         <v>2869.541995949997</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20767,7 +19639,7 @@
         <v>3309.847195949998</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20800,7 +19672,7 @@
         <v>3519.341595949998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20833,7 +19705,7 @@
         <v>3379.960195949997</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20866,7 +19738,7 @@
         <v>3152.683695949997</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20899,7 +19771,7 @@
         <v>2416.950895949997</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20932,7 +19804,7 @@
         <v>1955.494219479997</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20965,7 +19837,7 @@
         <v>1457.816519479997</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20998,7 +19870,7 @@
         <v>1975.001516019997</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21031,7 +19903,7 @@
         <v>2323.472592029997</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21064,7 +19936,7 @@
         <v>2629.516779339997</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21097,7 +19969,7 @@
         <v>2411.754947769997</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21130,7 +20002,7 @@
         <v>2799.981958109997</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21163,7 +20035,7 @@
         <v>2972.669048649997</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21196,7 +20068,7 @@
         <v>3039.971610979997</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21229,7 +20101,7 @@
         <v>3197.882011519997</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21262,7 +20134,7 @@
         <v>3006.209093359997</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21295,7 +20167,7 @@
         <v>2800.441152509998</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21328,7 +20200,7 @@
         <v>2895.456652509998</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21361,7 +20233,7 @@
         <v>2738.303335209998</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -24562,7 +23434,7 @@
         <v>3690.300562309997</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24595,7 +23467,7 @@
         <v>3545.816241349997</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24628,7 +23500,7 @@
         <v>3502.072941349997</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24661,7 +23533,7 @@
         <v>3545.641932309997</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24694,7 +23566,7 @@
         <v>3507.633032309997</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24727,7 +23599,7 @@
         <v>3527.671631379997</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24760,7 +23632,7 @@
         <v>3509.115331379997</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24793,7 +23665,7 @@
         <v>3545.788733219997</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24826,7 +23698,7 @@
         <v>3537.448533219997</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24859,7 +23731,7 @@
         <v>3523.026833219997</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24892,7 +23764,7 @@
         <v>3550.280856809997</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24925,7 +23797,7 @@
         <v>3591.624090999997</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24958,7 +23830,7 @@
         <v>3582.667390999997</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24991,7 +23863,7 @@
         <v>3610.077490999997</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25024,7 +23896,7 @@
         <v>3603.378590999997</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25057,7 +23929,7 @@
         <v>3602.853990999997</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25090,7 +23962,7 @@
         <v>3649.162090999997</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25123,7 +23995,7 @@
         <v>3667.371390999997</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25156,7 +24028,7 @@
         <v>3704.185290999998</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25189,7 +24061,7 @@
         <v>3676.779752759997</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25222,7 +24094,7 @@
         <v>3694.975152759997</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25255,7 +24127,7 @@
         <v>3681.000052759997</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25288,7 +24160,7 @@
         <v>3716.520252759997</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25321,7 +24193,7 @@
         <v>3677.121552759997</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25354,7 +24226,7 @@
         <v>3624.647252759997</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25387,7 +24259,7 @@
         <v>3512.239052759997</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25420,7 +24292,7 @@
         <v>3596.617952759997</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25453,7 +24325,7 @@
         <v>3427.697652759997</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25486,7 +24358,7 @@
         <v>3516.267752759997</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25519,7 +24391,7 @@
         <v>3649.262866559997</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25552,7 +24424,7 @@
         <v>3765.128766559997</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25585,7 +24457,7 @@
         <v>3649.009966559997</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25618,7 +24490,7 @@
         <v>3592.340512959997</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25651,7 +24523,7 @@
         <v>3561.456112959997</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25684,7 +24556,7 @@
         <v>3621.723512959997</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25717,7 +24589,7 @@
         <v>3585.970264329997</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25750,7 +24622,7 @@
         <v>3606.902464329997</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25783,7 +24655,7 @@
         <v>3540.778320799997</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25816,7 +24688,7 @@
         <v>3544.395820799997</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -38356,7 +37228,7 @@
         <v>2992.965909719996</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38389,7 +37261,7 @@
         <v>2934.777009719996</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -47112,6 +45984,6 @@
       <c r="M1342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BCH.xlsx
+++ b/BackTest/2020-01-16 BackTest BCH.xlsx
@@ -550,7 +550,7 @@
         <v>948.8634585299994</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>242.6288030499994</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-301.8697969500006</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1258.898096950001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -6688,17 +6688,11 @@
         <v>-3069.53847494</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>351200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6727,17 +6721,11 @@
         <v>-3051.53847494</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>349300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6766,17 +6754,11 @@
         <v>-2954.03917494</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>349800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6805,17 +6787,11 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>350300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6844,17 +6820,11 @@
         <v>-2862.83867494</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>351900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6883,17 +6853,11 @@
         <v>-2881.41247494</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>351900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6922,17 +6886,11 @@
         <v>-2871.88997494</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>351300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7035,17 +6985,11 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>350900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7074,17 +7018,11 @@
         <v>-2912.92646742</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>351000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7150,17 +7084,11 @@
         <v>-2950.66196742</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>351000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7197,7 +7125,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -9455,11 +9383,9 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>355200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9494,11 +9420,9 @@
         <v>-2586.680877520001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>355300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9533,11 +9457,9 @@
         <v>-2561.162177520001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>355300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9609,11 +9531,9 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>354700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9648,11 +9568,9 @@
         <v>-2567.488277520001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>354700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9687,11 +9605,9 @@
         <v>-2520.548377520001</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>354700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9726,11 +9642,9 @@
         <v>-2515.050377520001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>355400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9765,11 +9679,9 @@
         <v>-2536.379377520002</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>355600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9804,11 +9716,9 @@
         <v>-2556.981277520002</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>355500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9843,11 +9753,9 @@
         <v>-2509.407077520002</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>355300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9882,11 +9790,9 @@
         <v>-2513.871577520002</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9921,11 +9827,9 @@
         <v>-2538.124077520002</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>356000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -9960,11 +9864,9 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>354900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -9999,11 +9901,9 @@
         <v>-2477.624777520002</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10038,11 +9938,9 @@
         <v>-2459.441977520002</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10077,11 +9975,9 @@
         <v>-2457.120877520002</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>355400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10116,11 +10012,9 @@
         <v>-2475.785277520002</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10155,11 +10049,9 @@
         <v>-2410.211277520002</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>355900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10194,11 +10086,9 @@
         <v>-2368.825277520002</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>356100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10233,11 +10123,9 @@
         <v>-2356.852877520002</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>356800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10272,11 +10160,9 @@
         <v>-2295.289677520002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>357100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10311,11 +10197,9 @@
         <v>-2320.866593570001</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>358300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10350,11 +10234,9 @@
         <v>-2336.533893570002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>358100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10389,11 +10271,9 @@
         <v>-2326.072494410002</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>357100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10428,11 +10308,9 @@
         <v>-2357.378994410002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>358200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10541,11 +10419,9 @@
         <v>-2285.792094410002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>354600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10580,11 +10456,9 @@
         <v>-2281.242994410002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>355100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10619,11 +10493,9 @@
         <v>-2279.238994410002</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>355200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10658,11 +10530,9 @@
         <v>-2278.873094410002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>355700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10697,11 +10567,9 @@
         <v>-2290.219134280002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>355900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10736,11 +10604,9 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10775,11 +10641,9 @@
         <v>-2289.457534280002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>355900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10814,11 +10678,9 @@
         <v>-2173.910234280002</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>355900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10853,11 +10715,9 @@
         <v>-2141.242734280002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>357600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11299,11 +11159,9 @@
         <v>-2104.809534280002</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -16703,18 +16561,16 @@
         <v>4309.559785549997</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="inlineStr"/>
     </row>
     <row r="459">
@@ -16740,15 +16596,11 @@
         <v>4557.873621149997</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16777,15 +16629,11 @@
         <v>3938.118250349997</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16814,15 +16662,11 @@
         <v>3365.969152179997</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16851,15 +16695,11 @@
         <v>2799.140687159997</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16892,11 +16732,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16929,11 +16765,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16966,11 +16798,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17003,11 +16831,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17040,11 +16864,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +16897,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17114,11 +16930,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +16963,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17188,11 +16996,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17225,11 +17029,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17262,11 +17062,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17299,11 +17095,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17336,11 +17128,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17373,11 +17161,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17410,11 +17194,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17447,11 +17227,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17484,11 +17260,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17521,11 +17293,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17558,11 +17326,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17591,16 +17355,14 @@
         <v>2075.369522649997</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
       <c r="M482" t="inlineStr"/>
     </row>
     <row r="483">
@@ -17626,7 +17388,7 @@
         <v>2433.636822649997</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17659,7 +17421,7 @@
         <v>2288.090492199997</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18385,7 +18147,7 @@
         <v>3994.706796649997</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18418,7 +18180,7 @@
         <v>4470.274958419996</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18451,7 +18213,7 @@
         <v>5208.381598089996</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18484,7 +18246,7 @@
         <v>4499.122342109997</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18517,7 +18279,7 @@
         <v>5036.571927929996</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18550,7 +18312,7 @@
         <v>4503.819227109996</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18583,7 +18345,7 @@
         <v>4781.108527299996</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18616,7 +18378,7 @@
         <v>4365.012162709996</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18649,7 +18411,7 @@
         <v>4574.170255319996</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18682,7 +18444,7 @@
         <v>4753.897476479996</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18715,7 +18477,7 @@
         <v>4647.368610989996</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18748,7 +18510,7 @@
         <v>4343.296566079996</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18781,7 +18543,7 @@
         <v>3925.017276849997</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18814,7 +18576,7 @@
         <v>4403.498310969997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18847,7 +18609,7 @@
         <v>4260.654790339997</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18880,7 +18642,7 @@
         <v>4045.030909459997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18913,7 +18675,7 @@
         <v>4204.931409459997</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18946,7 +18708,7 @@
         <v>4487.342516309996</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18979,7 +18741,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19012,7 +18774,7 @@
         <v>4219.345116309996</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19045,7 +18807,7 @@
         <v>4043.356959329996</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19078,7 +18840,7 @@
         <v>3669.953553189996</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19111,7 +18873,7 @@
         <v>3987.938240579997</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19144,7 +18906,7 @@
         <v>4193.331607099996</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19177,7 +18939,7 @@
         <v>4338.436200269996</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19210,7 +18972,7 @@
         <v>4214.464352269996</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19243,7 +19005,7 @@
         <v>4029.621852269996</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19276,7 +19038,7 @@
         <v>4177.674705469996</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19309,7 +19071,7 @@
         <v>4582.041805469997</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19342,7 +19104,7 @@
         <v>4775.134005469997</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19375,7 +19137,7 @@
         <v>4284.088305469997</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19408,7 +19170,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19441,7 +19203,7 @@
         <v>4164.790305469997</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19474,7 +19236,7 @@
         <v>3963.091205469997</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19507,7 +19269,7 @@
         <v>3630.945105469998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19540,7 +19302,7 @@
         <v>3290.271395949997</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -37228,7 +36990,7 @@
         <v>2992.965909719996</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37261,7 +37023,7 @@
         <v>2934.777009719996</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
